--- a/uniaxial-loading-unloading/time_strain_stress/0d01_1d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d01_1d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,1927 +91,1905 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0004</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.70909090909090911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0049999999999999</v>
+        <v>1.0062</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2618844093104962</v>
+        <v>1.5088128342245994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>1.01</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>2.2157793588054453</v>
+        <v>2.4154578362813659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.6200000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0162</v>
       </c>
       <c r="C5" s="0">
-        <v>3.0340196750109794</v>
+        <v>3.2198116001645416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.1200000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>1.02</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>3.7921048748353097</v>
+        <v>3.9685981077745787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.6200000000000001</v>
       </c>
       <c r="B7" s="0">
-        <v>1.0249999999999999</v>
+        <v>1.0262</v>
       </c>
       <c r="C7" s="0">
-        <v>4.4836808080808073</v>
+        <v>4.6482607980255048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.1200000000000001</v>
       </c>
       <c r="B8" s="0">
-        <v>1.03</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="C8" s="0">
-        <v>5.144445674132629</v>
+        <v>5.2933006993007004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.6200000000000001</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0349999999999999</v>
+        <v>1.0362</v>
       </c>
       <c r="C9" s="0">
-        <v>5.7657424681598588</v>
+        <v>5.9068909913615801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.1200000000000001</v>
       </c>
       <c r="B10" s="0">
-        <v>1.04</v>
+        <v>1.0411999999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>6.3497684672815105</v>
+        <v>6.4881316330728103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.6200000000000001</v>
       </c>
       <c r="B11" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0462</v>
       </c>
       <c r="C11" s="0">
-        <v>6.9240409310496247</v>
+        <v>7.0547363225010296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.1200000000000001</v>
       </c>
       <c r="B12" s="0">
-        <v>1.05</v>
+        <v>1.0511999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>7.4691151515151493</v>
+        <v>7.6004179350061714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.6200000000000001</v>
       </c>
       <c r="B13" s="0">
-        <v>1.0549999999999999</v>
+        <v>1.0562</v>
       </c>
       <c r="C13" s="0">
-        <v>7.9915754062362732</v>
+        <v>8.1114611271081873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.1200000000000001</v>
       </c>
       <c r="B14" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0611999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>8.5067118137900728</v>
+        <v>8.6275886466474727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.6200000000000001</v>
       </c>
       <c r="B15" s="0">
-        <v>1.0649999999999999</v>
+        <v>1.0662</v>
       </c>
       <c r="C15" s="0">
-        <v>9.0047325428194966</v>
+        <v>9.1178527354997954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.1200000000000001</v>
       </c>
       <c r="B16" s="0">
-        <v>1.0700000000000001</v>
+        <v>1.0711999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>9.47312516469038</v>
+        <v>9.5831353352529831</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.6200000000000001</v>
       </c>
       <c r="B17" s="0">
-        <v>1.075</v>
+        <v>1.0762</v>
       </c>
       <c r="C17" s="0">
-        <v>9.9447121651295554</v>
+        <v>10.054384204031264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="B18" s="0">
-        <v>1.0800000000000001</v>
+        <v>1.0811999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>10.399596837944662</v>
+        <v>10.514903331962156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="B19" s="0">
-        <v>1.085</v>
+        <v>1.0862000000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>10.830110847606498</v>
+        <v>10.929160839160838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="B20" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0911999999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>11.263521826965302</v>
+        <v>11.36201069518717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="B21" s="0">
-        <v>1.095</v>
+        <v>1.0962000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>11.677023451910406</v>
+        <v>11.77726038667215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="B22" s="0">
-        <v>1.1000000000000001</v>
+        <v>1.1012</v>
       </c>
       <c r="C22" s="0">
-        <v>12.076162670180059</v>
+        <v>12.173340189222543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.619999999999999</v>
       </c>
       <c r="B23" s="0">
-        <v>1.105</v>
+        <v>1.1062000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>12.486015634606934</v>
+        <v>12.575042369395312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.119999999999999</v>
       </c>
       <c r="B24" s="0">
-        <v>1.1100000000000001</v>
+        <v>1.1112</v>
       </c>
       <c r="C24" s="0">
-        <v>12.869435573122527</v>
+        <v>12.968872891814069</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.619999999999999</v>
       </c>
       <c r="B25" s="0">
-        <v>1.115</v>
+        <v>1.1162000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>13.259317698726392</v>
+        <v>13.354400658165364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.119999999999999</v>
       </c>
       <c r="B26" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1212</v>
       </c>
       <c r="C26" s="0">
-        <v>13.63293298199385</v>
+        <v>13.716608802961746</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.619999999999999</v>
       </c>
       <c r="B27" s="0">
-        <v>1.125</v>
+        <v>1.1262000000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>14.005738779095296</v>
+        <v>14.0923735088441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.119999999999999</v>
       </c>
       <c r="B28" s="0">
-        <v>1.1299999999999999</v>
+        <v>1.1312</v>
       </c>
       <c r="C28" s="0">
-        <v>14.370505577514271</v>
+        <v>14.45966598107775</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.619999999999999</v>
       </c>
       <c r="B29" s="0">
-        <v>1.135</v>
+        <v>1.1362000000000001</v>
       </c>
       <c r="C29" s="0">
-        <v>14.708353798858143</v>
+        <v>14.793256273138628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.119999999999999</v>
       </c>
       <c r="B30" s="0">
-        <v>1.1400000000000001</v>
+        <v>1.1412</v>
       </c>
       <c r="C30" s="0">
-        <v>15.050724813350897</v>
+        <v>15.139025092554505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.619999999999999</v>
       </c>
       <c r="B31" s="0">
-        <v>1.145</v>
+        <v>1.1461999999999999</v>
       </c>
       <c r="C31" s="0">
-        <v>15.38522213438735</v>
+        <v>15.475845331139453</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.119999999999999</v>
       </c>
       <c r="B32" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1512</v>
       </c>
       <c r="C32" s="0">
-        <v>15.71596714975845</v>
+        <v>15.791320444261626</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.619999999999999</v>
       </c>
       <c r="B33" s="0">
-        <v>1.155</v>
+        <v>1.1562000000000001</v>
       </c>
       <c r="C33" s="0">
-        <v>16.04359929732103</v>
+        <v>16.118760180995476</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.120000000000001</v>
       </c>
       <c r="B34" s="0">
-        <v>1.1599999999999999</v>
+        <v>1.1612</v>
       </c>
       <c r="C34" s="0">
-        <v>16.35941256038647</v>
+        <v>16.432812834224599</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.620000000000001</v>
       </c>
       <c r="B35" s="0">
-        <v>1.165</v>
+        <v>1.1661999999999999</v>
       </c>
       <c r="C35" s="0">
-        <v>16.680617830478699</v>
+        <v>16.756041135335256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.120000000000001</v>
       </c>
       <c r="B36" s="0">
-        <v>1.1699999999999999</v>
+        <v>1.1712</v>
       </c>
       <c r="C36" s="0">
-        <v>16.977212472551599</v>
+        <v>17.051248868778288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.620000000000001</v>
       </c>
       <c r="B37" s="0">
-        <v>1.175</v>
+        <v>1.1762000000000001</v>
       </c>
       <c r="C37" s="0">
-        <v>17.285224593763722</v>
+        <v>17.349280954339779</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.120000000000001</v>
       </c>
       <c r="B38" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1812</v>
       </c>
       <c r="C38" s="0">
-        <v>17.58424382960035</v>
+        <v>17.64509913615796</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.620000000000001</v>
       </c>
       <c r="B39" s="0">
-        <v>1.1850000000000001</v>
+        <v>1.1861999999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>17.872839701361436</v>
+        <v>17.935610037021803</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.120000000000001</v>
       </c>
       <c r="B40" s="0">
-        <v>1.1899999999999999</v>
+        <v>1.1912</v>
       </c>
       <c r="C40" s="0">
-        <v>18.159256741326306</v>
+        <v>18.226473879062116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.620000000000001</v>
       </c>
       <c r="B41" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1961999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>18.438587615283261</v>
+        <v>18.5081456190868</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.120000000000001</v>
       </c>
       <c r="B42" s="0">
-        <v>1.2</v>
+        <v>1.2012</v>
       </c>
       <c r="C42" s="0">
-        <v>18.717404655248131</v>
+        <v>18.77886877828055</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.620000000000001</v>
       </c>
       <c r="B43" s="0">
-        <v>1.2050000000000001</v>
+        <v>1.2061999999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>18.983786736934562</v>
+        <v>19.042264088852331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.120000000000001</v>
       </c>
       <c r="B44" s="0">
-        <v>1.21</v>
+        <v>1.2112000000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>19.25640052700922</v>
+        <v>19.315716166186757</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.620000000000001</v>
       </c>
       <c r="B45" s="0">
-        <v>1.2150000000000001</v>
+        <v>1.2161999999999999</v>
       </c>
       <c r="C45" s="0">
-        <v>19.510040404040399</v>
+        <v>19.565843685726044</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.120000000000001</v>
       </c>
       <c r="B46" s="0">
-        <v>1.22</v>
+        <v>1.2212000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>19.773282213438733</v>
+        <v>19.825945701357469</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.620000000000001</v>
       </c>
       <c r="B47" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2262</v>
       </c>
       <c r="C47" s="0">
-        <v>20.036162845849798</v>
+        <v>20.090923899629786</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.120000000000001</v>
       </c>
       <c r="B48" s="0">
-        <v>1.23</v>
+        <v>1.2312000000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>20.274547738252085</v>
+        <v>20.339320444261624</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.620000000000001</v>
       </c>
       <c r="B49" s="0">
-        <v>1.2350000000000001</v>
+        <v>1.2362</v>
       </c>
       <c r="C49" s="0">
-        <v>20.529660430390859</v>
+        <v>20.591754833401897</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.120000000000001</v>
       </c>
       <c r="B50" s="0">
-        <v>1.24</v>
+        <v>1.2412000000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>20.770394905577508</v>
+        <v>20.830126696832579</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.620000000000001</v>
       </c>
       <c r="B51" s="0">
-        <v>1.2450000000000001</v>
+        <v>1.2462</v>
       </c>
       <c r="C51" s="0">
-        <v>21.007969609134825</v>
+        <v>21.060535582064997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.120000000000001</v>
       </c>
       <c r="B52" s="0">
-        <v>1.25</v>
+        <v>1.2512000000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>21.253154150197624</v>
+        <v>21.297917729329495</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.620000000000001</v>
       </c>
       <c r="B53" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2562</v>
       </c>
       <c r="C53" s="0">
-        <v>21.485610715854193</v>
+        <v>21.549005347593589</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.120000000000001</v>
       </c>
       <c r="B54" s="0">
-        <v>1.26</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>21.709859464207284</v>
+        <v>21.757178938708353</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.620000000000001</v>
       </c>
       <c r="B55" s="0">
-        <v>1.2650000000000001</v>
+        <v>1.2662</v>
       </c>
       <c r="C55" s="0">
-        <v>21.930793324549839</v>
+        <v>21.986403126285484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.120000000000001</v>
       </c>
       <c r="B56" s="0">
-        <v>1.27</v>
+        <v>1.2711999999999999</v>
       </c>
       <c r="C56" s="0">
-        <v>22.162587088274037</v>
+        <v>22.205661867544222</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.620000000000001</v>
       </c>
       <c r="B57" s="0">
-        <v>1.2749999999999999</v>
+        <v>1.2762</v>
       </c>
       <c r="C57" s="0">
-        <v>22.376774176548082</v>
+        <v>22.430549568078987</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.120000000000001</v>
       </c>
       <c r="B58" s="0">
-        <v>1.28</v>
+        <v>1.2812000000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>22.60058322353974</v>
+        <v>22.646704236939538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.620000000000001</v>
       </c>
       <c r="B59" s="0">
-        <v>1.2850000000000001</v>
+        <v>1.2862</v>
       </c>
       <c r="C59" s="0">
-        <v>22.804546332894159</v>
+        <v>22.851085972850683</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.120000000000001</v>
       </c>
       <c r="B60" s="0">
-        <v>1.29</v>
+        <v>1.2911999999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>23.015641458058845</v>
+        <v>23.065197038255867</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.620000000000001</v>
       </c>
       <c r="B61" s="0">
-        <v>1.2949999999999999</v>
+        <v>1.2962</v>
       </c>
       <c r="C61" s="0">
-        <v>23.226339393939391</v>
+        <v>23.285712052653231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.120000000000001</v>
       </c>
       <c r="B62" s="0">
-        <v>1.3</v>
+        <v>1.3012000000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>23.431140272288097</v>
+        <v>23.484594816947759</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.620000000000001</v>
       </c>
       <c r="B63" s="0">
-        <v>1.3049999999999999</v>
+        <v>1.3062</v>
       </c>
       <c r="C63" s="0">
-        <v>23.63387105841019</v>
+        <v>23.680352941176476</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.120000000000001</v>
       </c>
       <c r="B64" s="0">
-        <v>1.3100000000000001</v>
+        <v>1.3111999999999999</v>
       </c>
       <c r="C64" s="0">
-        <v>23.831662362758006</v>
+        <v>23.891183874948581</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.620000000000001</v>
       </c>
       <c r="B65" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3162</v>
       </c>
       <c r="C65" s="0">
-        <v>24.032307246376806</v>
+        <v>24.081054709995897</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="B66" s="0">
-        <v>1.3200000000000001</v>
+        <v>1.3211999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>24.225457883179622</v>
+        <v>24.275803373097485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="B67" s="0">
-        <v>1.325</v>
+        <v>1.3262</v>
       </c>
       <c r="C67" s="0">
-        <v>24.415401493192793</v>
+        <v>24.460800493624031</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="B68" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3311999999999999</v>
       </c>
       <c r="C68" s="0">
-        <v>24.604729732103635</v>
+        <v>24.650976552858914</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.5</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="B69" s="0">
-        <v>1.335</v>
+        <v>1.3362000000000001</v>
       </c>
       <c r="C69" s="0">
-        <v>24.791368818620988</v>
+        <v>24.839395310571781</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>34</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="B70" s="0">
-        <v>1.3400000000000001</v>
+        <v>1.3411999999999999</v>
       </c>
       <c r="C70" s="0">
-        <v>24.981769169960465</v>
+        <v>25.024846565199507</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.5</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="B71" s="0">
-        <v>1.345</v>
+        <v>1.3462000000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>25.156157927097055</v>
+        <v>25.202185931715348</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>35</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="B72" s="0">
-        <v>1.3500000000000001</v>
+        <v>1.3512</v>
       </c>
       <c r="C72" s="0">
-        <v>25.342360649978026</v>
+        <v>25.379068696009877</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.5</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="B73" s="0">
-        <v>1.355</v>
+        <v>1.3561999999999999</v>
       </c>
       <c r="C73" s="0">
-        <v>25.524598506807195</v>
+        <v>25.559167420814486</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>36</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="B74" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3612</v>
       </c>
       <c r="C74" s="0">
-        <v>25.695411506368025</v>
+        <v>25.737369806663928</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.5</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="B75" s="0">
-        <v>1.365</v>
+        <v>1.3662000000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>25.866789811155019</v>
+        <v>25.90645824763472</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>37</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="B76" s="0">
-        <v>1.3700000000000001</v>
+        <v>1.3712</v>
       </c>
       <c r="C76" s="0">
-        <v>26.045741765480898</v>
+        <v>26.091507198683672</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.5</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="B77" s="0">
-        <v>1.375</v>
+        <v>1.3761999999999999</v>
       </c>
       <c r="C77" s="0">
-        <v>26.212833728590244</v>
+        <v>26.251225010283832</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>38</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>1.3799999999999999</v>
+        <v>1.3812</v>
       </c>
       <c r="C78" s="0">
-        <v>26.385193851559062</v>
+        <v>26.414098724804607</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.5</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="B79" s="0">
-        <v>1.385</v>
+        <v>1.3862000000000001</v>
       </c>
       <c r="C79" s="0">
-        <v>26.543966447079484</v>
+        <v>26.588887700534766</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>39</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="B80" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3912</v>
       </c>
       <c r="C80" s="0">
-        <v>26.705543258673693</v>
+        <v>26.743162484574253</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.5</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="B81" s="0">
-        <v>1.395</v>
+        <v>1.3961999999999999</v>
       </c>
       <c r="C81" s="0">
-        <v>26.884573561703995</v>
+        <v>26.923092554504326</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>40</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="B82" s="0">
-        <v>1.3999999999999999</v>
+        <v>1.4012</v>
       </c>
       <c r="C82" s="0">
-        <v>27.029877558190599</v>
+        <v>27.074422048539706</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.5</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="B83" s="0">
-        <v>1.405</v>
+        <v>1.4062000000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>27.190007729468597</v>
+        <v>27.236577540106957</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>41</v>
+        <v>41.119999999999997</v>
       </c>
       <c r="B84" s="0">
-        <v>1.4100000000000001</v>
+        <v>1.4112</v>
       </c>
       <c r="C84" s="0">
-        <v>27.350461835748792</v>
+        <v>27.383881530234476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.5</v>
+        <v>41.619999999999997</v>
       </c>
       <c r="B85" s="0">
-        <v>1.415</v>
+        <v>1.4161999999999999</v>
       </c>
       <c r="C85" s="0">
-        <v>27.499166974088709</v>
+        <v>27.540122583299055</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>42</v>
+        <v>42.119999999999997</v>
       </c>
       <c r="B86" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4212</v>
       </c>
       <c r="C86" s="0">
-        <v>27.655445586297756</v>
+        <v>27.690255039078576</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.5</v>
+        <v>42.619999999999997</v>
       </c>
       <c r="B87" s="0">
-        <v>1.425</v>
+        <v>1.4261999999999999</v>
       </c>
       <c r="C87" s="0">
-        <v>27.803582960035126</v>
+        <v>27.836283011106541</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>43</v>
+        <v>43.119999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>1.4299999999999999</v>
+        <v>1.4312</v>
       </c>
       <c r="C88" s="0">
-        <v>27.964570575318394</v>
+        <v>27.995192102015629</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.5</v>
+        <v>43.619999999999997</v>
       </c>
       <c r="B89" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4361999999999999</v>
       </c>
       <c r="C89" s="0">
-        <v>28.09696495388669</v>
+        <v>28.128334841628963</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>44</v>
+        <v>44.119999999999997</v>
       </c>
       <c r="B90" s="0">
-        <v>1.4399999999999999</v>
+        <v>1.4412</v>
       </c>
       <c r="C90" s="0">
-        <v>28.250504523495824</v>
+        <v>28.284134101192926</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.5</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="B91" s="0">
-        <v>1.4450000000000001</v>
+        <v>1.4461999999999999</v>
       </c>
       <c r="C91" s="0">
-        <v>28.398489415898105</v>
+        <v>28.430330728095441</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>45</v>
+        <v>45.119999999999997</v>
       </c>
       <c r="B92" s="0">
-        <v>1.45</v>
+        <v>1.4512</v>
       </c>
       <c r="C92" s="0">
-        <v>28.545765480895913</v>
+        <v>28.576621143562328</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.5</v>
+        <v>45.619999999999997</v>
       </c>
       <c r="B93" s="0">
-        <v>1.4550000000000001</v>
+        <v>1.4561999999999999</v>
       </c>
       <c r="C93" s="0">
-        <v>28.682343610013174</v>
+        <v>28.717579596873719</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>46</v>
+        <v>46.119999999999997</v>
       </c>
       <c r="B94" s="0">
-        <v>1.46</v>
+        <v>1.4612000000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>28.812174440052694</v>
+        <v>28.836729740847399</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.5</v>
+        <v>46.619999999999997</v>
       </c>
       <c r="B95" s="0">
-        <v>1.4650000000000001</v>
+        <v>1.4661999999999999</v>
       </c>
       <c r="C95" s="0">
-        <v>28.956941414141411</v>
+        <v>28.999621554915677</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>47</v>
+        <v>47.119999999999997</v>
       </c>
       <c r="B96" s="0">
-        <v>1.47</v>
+        <v>1.4712000000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>29.102296530522612</v>
+        <v>29.132333196215555</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.5</v>
+        <v>47.619999999999997</v>
       </c>
       <c r="B97" s="0">
-        <v>1.4750000000000001</v>
+        <v>1.4762</v>
       </c>
       <c r="C97" s="0">
-        <v>29.224211155028541</v>
+        <v>29.260915672562735</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48</v>
+        <v>48.119999999999997</v>
       </c>
       <c r="B98" s="0">
-        <v>1.48</v>
+        <v>1.4811999999999999</v>
       </c>
       <c r="C98" s="0">
-        <v>29.362806499780405</v>
+        <v>29.396255039078572</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.5</v>
+        <v>48.619999999999997</v>
       </c>
       <c r="B99" s="0">
-        <v>1.4849999999999999</v>
+        <v>1.4862</v>
       </c>
       <c r="C99" s="0">
-        <v>29.497221607378119</v>
+        <v>29.523747429041556</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>49</v>
+        <v>49.119999999999997</v>
       </c>
       <c r="B100" s="0">
-        <v>1.49</v>
+        <v>1.4912000000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>29.628097496706186</v>
+        <v>29.655884821061296</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.5</v>
+        <v>49.619999999999997</v>
       </c>
       <c r="B101" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4962</v>
       </c>
       <c r="C101" s="0">
-        <v>29.752160386473427</v>
+        <v>29.777874948580831</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>50</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B102" s="0">
-        <v>1.4900000000000002</v>
+        <v>1.4913999999999998</v>
       </c>
       <c r="C102" s="0">
-        <v>29.619650214519769</v>
+        <v>29.309897909577057</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.479999999999997</v>
+        <v>50.600000000000001</v>
       </c>
       <c r="B103" s="0">
-        <v>1.4852000000000001</v>
+        <v>1.4863999999999999</v>
       </c>
       <c r="C103" s="0">
-        <v>28.588848005749181</v>
+        <v>28.376098126472463</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>50.979999999999997</v>
+        <v>51.100000000000001</v>
       </c>
       <c r="B104" s="0">
-        <v>1.4802000000000002</v>
+        <v>1.4813999999999998</v>
       </c>
       <c r="C104" s="0">
-        <v>27.781082205453743</v>
+        <v>27.618904678209493</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.479999999999997</v>
+        <v>51.600000000000001</v>
       </c>
       <c r="B105" s="0">
-        <v>1.4752000000000001</v>
+        <v>1.4763999999999999</v>
       </c>
       <c r="C105" s="0">
-        <v>27.113540144528283</v>
+        <v>26.958948057290307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>51.979999999999997</v>
+        <v>52.100000000000001</v>
       </c>
       <c r="B106" s="0">
-        <v>1.4702000000000002</v>
+        <v>1.4714</v>
       </c>
       <c r="C106" s="0">
-        <v>26.517291092745634</v>
+        <v>26.382539546015483</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.479999999999997</v>
+        <v>52.600000000000001</v>
       </c>
       <c r="B107" s="0">
-        <v>1.4652000000000001</v>
+        <v>1.4663999999999999</v>
       </c>
       <c r="C107" s="0">
-        <v>25.968564299117656</v>
+        <v>25.839457387532253</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>52.979999999999997</v>
+        <v>53.100000000000001</v>
       </c>
       <c r="B108" s="0">
-        <v>1.4602000000000002</v>
+        <v>1.4614</v>
       </c>
       <c r="C108" s="0">
-        <v>25.443278716013893</v>
+        <v>25.325279159343335</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.479999999999997</v>
+        <v>53.600000000000001</v>
       </c>
       <c r="B109" s="0">
-        <v>1.4552</v>
+        <v>1.4563999999999999</v>
       </c>
       <c r="C109" s="0">
-        <v>24.953697848045664</v>
+        <v>24.836344564526385</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>53.979999999999997</v>
+        <v>54.100000000000001</v>
       </c>
       <c r="B110" s="0">
-        <v>1.4502000000000002</v>
+        <v>1.4514</v>
       </c>
       <c r="C110" s="0">
-        <v>24.479568650936237</v>
+        <v>24.36810777457837</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.479999999999997</v>
+        <v>54.600000000000001</v>
       </c>
       <c r="B111" s="0">
-        <v>1.4452</v>
+        <v>1.4463999999999999</v>
       </c>
       <c r="C111" s="0">
-        <v>24.017046352856617</v>
+        <v>23.909766650461847</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>54.979999999999997</v>
+        <v>55.100000000000001</v>
       </c>
       <c r="B112" s="0">
-        <v>1.4402000000000001</v>
+        <v>1.4414</v>
       </c>
       <c r="C112" s="0">
-        <v>23.569562981594604</v>
+        <v>23.462937810852249</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.479999999999997</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="B113" s="0">
-        <v>1.4352</v>
+        <v>1.4363999999999999</v>
       </c>
       <c r="C113" s="0">
-        <v>23.132008543937392</v>
+        <v>23.02702292360047</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>55.979999999999997</v>
+        <v>56.100000000000001</v>
       </c>
       <c r="B114" s="0">
-        <v>1.4302000000000001</v>
+        <v>1.4314</v>
       </c>
       <c r="C114" s="0">
-        <v>22.721273366071777</v>
+        <v>22.618304102314806</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.479999999999997</v>
+        <v>56.600000000000001</v>
       </c>
       <c r="B115" s="0">
-        <v>1.4252000000000002</v>
+        <v>1.4263999999999999</v>
       </c>
       <c r="C115" s="0">
-        <v>22.304784525092821</v>
+        <v>22.204853595602255</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>56.979999999999997</v>
+        <v>57.100000000000001</v>
       </c>
       <c r="B116" s="0">
-        <v>1.4202000000000001</v>
+        <v>1.4214</v>
       </c>
       <c r="C116" s="0">
-        <v>21.898740447957834</v>
+        <v>21.795119105493438</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.479999999999997</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="B117" s="0">
-        <v>1.4152000000000002</v>
+        <v>1.4163999999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>21.500822533636757</v>
+        <v>21.402590404248162</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>57.979999999999997</v>
+        <v>58.100000000000001</v>
       </c>
       <c r="B118" s="0">
-        <v>1.4102000000000001</v>
+        <v>1.4114</v>
       </c>
       <c r="C118" s="0">
-        <v>21.103218589052577</v>
+        <v>21.011738528850834</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.479999999999997</v>
+        <v>58.600000000000001</v>
       </c>
       <c r="B119" s="0">
-        <v>1.4052000000000002</v>
+        <v>1.4063999999999999</v>
       </c>
       <c r="C119" s="0">
-        <v>20.712940711462448</v>
+        <v>20.623488650387049</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>58.979999999999997</v>
+        <v>59.100000000000001</v>
       </c>
       <c r="B120" s="0">
-        <v>1.4002000000000001</v>
+        <v>1.4014</v>
       </c>
       <c r="C120" s="0">
-        <v>20.330785163891875</v>
+        <v>20.236338955162488</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>59.479999999999997</v>
+        <v>59.600000000000001</v>
       </c>
       <c r="B121" s="0">
-        <v>1.3952000000000002</v>
+        <v>1.3963999999999999</v>
       </c>
       <c r="C121" s="0">
-        <v>19.959254441649694</v>
+        <v>19.868322052279275</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>59.979999999999997</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B122" s="0">
-        <v>1.3902000000000001</v>
+        <v>1.3914</v>
       </c>
       <c r="C122" s="0">
-        <v>19.574641993053056</v>
+        <v>19.485170337683712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>60.479999999999997</v>
+        <v>60.600000000000001</v>
       </c>
       <c r="B123" s="0">
-        <v>1.3852000000000002</v>
+        <v>1.3863999999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>19.200703876711778</v>
+        <v>19.113045510639097</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>60.979999999999997</v>
+        <v>61.100000000000001</v>
       </c>
       <c r="B124" s="0">
-        <v>1.3802000000000001</v>
+        <v>1.3814</v>
       </c>
       <c r="C124" s="0">
-        <v>18.838297281111501</v>
+        <v>18.750934520025432</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>61.479999999999997</v>
+        <v>61.600000000000001</v>
       </c>
       <c r="B125" s="0">
-        <v>1.3752000000000002</v>
+        <v>1.3763999999999998</v>
       </c>
       <c r="C125" s="0">
-        <v>18.472955323990899</v>
+        <v>18.386053999476463</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>61.979999999999997</v>
+        <v>62.100000000000001</v>
       </c>
       <c r="B126" s="0">
-        <v>1.3702000000000001</v>
+        <v>1.3714</v>
       </c>
       <c r="C126" s="0">
-        <v>18.115763404798976</v>
+        <v>18.025431360083768</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>62.479999999999997</v>
+        <v>62.600000000000001</v>
       </c>
       <c r="B127" s="0">
-        <v>1.3652000000000002</v>
+        <v>1.3663999999999998</v>
       </c>
       <c r="C127" s="0">
-        <v>17.752783007945059</v>
+        <v>17.670407613776597</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>62.979999999999997</v>
+        <v>63.100000000000001</v>
       </c>
       <c r="B128" s="0">
-        <v>1.3602000000000001</v>
+        <v>1.3613999999999999</v>
       </c>
       <c r="C128" s="0">
-        <v>17.388700043917428</v>
+        <v>17.306019221420293</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>63.479999999999997</v>
+        <v>63.600000000000001</v>
       </c>
       <c r="B129" s="0">
-        <v>1.3552000000000002</v>
+        <v>1.3563999999999998</v>
       </c>
       <c r="C129" s="0">
-        <v>17.037556194354611</v>
+        <v>16.948236415990429</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>63.979999999999997</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="B130" s="0">
-        <v>1.3502000000000001</v>
+        <v>1.3513999999999999</v>
       </c>
       <c r="C130" s="0">
-        <v>16.676307501896432</v>
+        <v>16.592215324782174</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>64.480000000000004</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="B131" s="0">
-        <v>1.3452000000000002</v>
+        <v>1.3464</v>
       </c>
       <c r="C131" s="0">
-        <v>16.331382361161012</v>
+        <v>16.245773531281554</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>64.980000000000004</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="B132" s="0">
-        <v>1.3402000000000001</v>
+        <v>1.3413999999999999</v>
       </c>
       <c r="C132" s="0">
-        <v>15.977157024793385</v>
+        <v>15.890031038480238</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>65.480000000000004</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="B133" s="0">
-        <v>1.3351999999999999</v>
+        <v>1.3364</v>
       </c>
       <c r="C133" s="0">
-        <v>15.628945901704789</v>
+        <v>15.549662690250926</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>65.980000000000004</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="B134" s="0">
-        <v>1.3302</v>
+        <v>1.3313999999999999</v>
       </c>
       <c r="C134" s="0">
-        <v>15.278778376651891</v>
+        <v>15.196968325791859</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>66.480000000000004</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="B135" s="0">
-        <v>1.3252000000000002</v>
+        <v>1.3264</v>
       </c>
       <c r="C135" s="0">
-        <v>14.930242823491831</v>
+        <v>14.845036460865339</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>66.980000000000004</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="B136" s="0">
-        <v>1.3202</v>
+        <v>1.3213999999999999</v>
       </c>
       <c r="C136" s="0">
-        <v>14.581973569688982</v>
+        <v>14.503488650387046</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>67.480000000000004</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="B137" s="0">
-        <v>1.3152000000000001</v>
+        <v>1.3164</v>
       </c>
       <c r="C137" s="0">
-        <v>14.229472272128396</v>
+        <v>14.147956321753115</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>67.980000000000004</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="B138" s="0">
-        <v>1.3102</v>
+        <v>1.3113999999999999</v>
       </c>
       <c r="C138" s="0">
-        <v>13.880685191839344</v>
+        <v>13.798028121611011</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>68.480000000000004</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="B139" s="0">
-        <v>1.3052000000000001</v>
+        <v>1.3064</v>
       </c>
       <c r="C139" s="0">
-        <v>13.538931129476579</v>
+        <v>13.457040873564939</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>68.980000000000004</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="B140" s="0">
-        <v>1.3002</v>
+        <v>1.3014000000000001</v>
       </c>
       <c r="C140" s="0">
-        <v>13.192429592366349</v>
+        <v>13.108825025242139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>69.480000000000004</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="B141" s="0">
-        <v>1.2952000000000001</v>
+        <v>1.2964</v>
       </c>
       <c r="C141" s="0">
-        <v>12.845065357128595</v>
+        <v>12.760725103773234</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>69.980000000000004</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B142" s="0">
-        <v>1.2902</v>
+        <v>1.2913999999999999</v>
       </c>
       <c r="C142" s="0">
-        <v>12.499891324310292</v>
+        <v>12.41224636326241</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>70.480000000000004</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="B143" s="0">
-        <v>1.2852000000000001</v>
+        <v>1.2864</v>
       </c>
       <c r="C143" s="0">
-        <v>12.150099972052537</v>
+        <v>12.063923937025544</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>70.980000000000004</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="B144" s="0">
-        <v>1.2802</v>
+        <v>1.2814000000000001</v>
       </c>
       <c r="C144" s="0">
-        <v>11.803850920269891</v>
+        <v>11.721533974047343</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>71.480000000000004</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="B145" s="0">
-        <v>1.2752000000000001</v>
+        <v>1.2764</v>
       </c>
       <c r="C145" s="0">
-        <v>11.45579478580269</v>
+        <v>11.372880221382896</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>71.980000000000004</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="B146" s="0">
-        <v>1.2702</v>
+        <v>1.2714000000000001</v>
       </c>
       <c r="C146" s="0">
-        <v>11.11149071745119</v>
+        <v>11.024313600837667</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>72.480000000000004</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="B147" s="0">
-        <v>1.2652000000000001</v>
+        <v>1.2664</v>
       </c>
       <c r="C147" s="0">
-        <v>10.763292609893398</v>
+        <v>10.679971205265325</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>72.980000000000004</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="B148" s="0">
-        <v>1.2602</v>
+        <v>1.2614000000000001</v>
       </c>
       <c r="C148" s="0">
-        <v>10.413322952848644</v>
+        <v>10.320795407800757</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>73.480000000000004</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="B149" s="0">
-        <v>1.2552000000000001</v>
+        <v>1.2564</v>
       </c>
       <c r="C149" s="0">
-        <v>10.062079370782927</v>
+        <v>9.9775157997083141</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>73.980000000000004</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="B150" s="0">
-        <v>1.2502</v>
+        <v>1.2514000000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>9.7088656525731629</v>
+        <v>9.6253408623462136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>74.480000000000004</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B151" s="0">
-        <v>1.2452000000000001</v>
+        <v>1.2464</v>
       </c>
       <c r="C151" s="0">
-        <v>9.3588012935680904</v>
+        <v>9.2702441943083649</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>74.980000000000004</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="B152" s="0">
-        <v>1.2402000000000002</v>
+        <v>1.2414000000000001</v>
       </c>
       <c r="C152" s="0">
-        <v>9.0025134347426814</v>
+        <v>8.9156527429789474</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>75.480000000000004</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="B153" s="0">
-        <v>1.2352000000000001</v>
+        <v>1.2363999999999999</v>
       </c>
       <c r="C153" s="0">
-        <v>8.6504386154030399</v>
+        <v>8.5613716764518912</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>75.980000000000004</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="B154" s="0">
-        <v>1.2302</v>
+        <v>1.2314000000000001</v>
       </c>
       <c r="C154" s="0">
-        <v>8.2961007705513605</v>
+        <v>8.2068782020118949</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>76.480000000000004</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="B155" s="0">
-        <v>1.2252000000000001</v>
+        <v>1.2263999999999999</v>
       </c>
       <c r="C155" s="0">
-        <v>7.9444892402283678</v>
+        <v>7.8600691821547448</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>76.980000000000004</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="B156" s="0">
-        <v>1.2202000000000002</v>
+        <v>1.2214</v>
       </c>
       <c r="C156" s="0">
-        <v>7.5840974967061907</v>
+        <v>7.4953573164803133</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>77.480000000000004</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="B157" s="0">
-        <v>1.2152000000000001</v>
+        <v>1.2163999999999999</v>
       </c>
       <c r="C157" s="0">
-        <v>7.224788118337524</v>
+        <v>7.1450237463071691</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>77.980000000000004</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="B158" s="0">
-        <v>1.2101999999999999</v>
+        <v>1.2114</v>
       </c>
       <c r="C158" s="0">
-        <v>6.8682554397732263</v>
+        <v>6.7806465726786582</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>78.480000000000004</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="B159" s="0">
-        <v>1.2052</v>
+        <v>1.2063999999999999</v>
       </c>
       <c r="C159" s="0">
-        <v>6.505232003832794</v>
+        <v>6.4178112262069487</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>78.980000000000004</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="B160" s="0">
-        <v>1.2002000000000002</v>
+        <v>1.2014</v>
       </c>
       <c r="C160" s="0">
-        <v>6.1395133948177412</v>
+        <v>6.0571549306308654</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>79.480000000000004</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="B161" s="0">
-        <v>1.1952</v>
+        <v>1.1964000000000001</v>
       </c>
       <c r="C161" s="0">
-        <v>5.7806594003273837</v>
+        <v>5.6922560861598308</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>79.980000000000004</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B162" s="0">
-        <v>1.1901999999999999</v>
+        <v>1.1914</v>
       </c>
       <c r="C162" s="0">
-        <v>5.416139817143768</v>
+        <v>5.3238652256834094</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>80.480000000000004</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="B163" s="0">
-        <v>1.1852</v>
+        <v>1.1863999999999999</v>
       </c>
       <c r="C163" s="0">
-        <v>5.0513068231724345</v>
+        <v>4.9607965296735363</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>80.980000000000004</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="B164" s="0">
-        <v>1.1802000000000001</v>
+        <v>1.1814</v>
       </c>
       <c r="C164" s="0">
-        <v>4.6698841378208957</v>
+        <v>4.5826565947421569</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>81.480000000000004</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="B165" s="0">
-        <v>1.1752</v>
+        <v>1.1764000000000001</v>
       </c>
       <c r="C165" s="0">
-        <v>4.2984125044915551</v>
+        <v>4.2079828727422317</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>81.980000000000004</v>
+        <v>82.099999999999994</v>
       </c>
       <c r="B166" s="0">
-        <v>1.1702000000000001</v>
+        <v>1.1714</v>
       </c>
       <c r="C166" s="0">
-        <v>3.9326365632610676</v>
+        <v>3.8424221233312155</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>82.480000000000004</v>
+        <v>82.599999999999994</v>
       </c>
       <c r="B167" s="0">
-        <v>1.1652</v>
+        <v>1.1663999999999999</v>
       </c>
       <c r="C167" s="0">
-        <v>3.553779135225775</v>
+        <v>3.4612366777607431</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>82.980000000000004</v>
+        <v>83.099999999999994</v>
       </c>
       <c r="B168" s="0">
-        <v>1.1602000000000001</v>
+        <v>1.1614</v>
       </c>
       <c r="C168" s="0">
-        <v>3.1806302551203731</v>
+        <v>3.0930918813806514</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>83.480000000000004</v>
+        <v>83.599999999999994</v>
       </c>
       <c r="B169" s="0">
-        <v>1.1552</v>
+        <v>1.1564000000000001</v>
       </c>
       <c r="C169" s="0">
-        <v>2.8055961192957235</v>
+        <v>2.7126913727983251</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>83.980000000000004</v>
+        <v>84.099999999999994</v>
       </c>
       <c r="B170" s="0">
-        <v>1.1502000000000001</v>
+        <v>1.1514</v>
       </c>
       <c r="C170" s="0">
-        <v>2.4268107957040761</v>
+        <v>2.3343816611196289</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>84.480000000000004</v>
+        <v>84.599999999999994</v>
       </c>
       <c r="B171" s="0">
-        <v>1.1452</v>
+        <v>1.1463999999999999</v>
       </c>
       <c r="C171" s="0">
-        <v>2.0459447438815022</v>
+        <v>1.9566052129688494</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>84.980000000000004</v>
+        <v>85.099999999999994</v>
       </c>
       <c r="B172" s="0">
-        <v>1.1402000000000001</v>
+        <v>1.1414</v>
       </c>
       <c r="C172" s="0">
-        <v>1.6565817862418653</v>
+        <v>1.5626266781347</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>85.480000000000004</v>
+        <v>85.599999999999994</v>
       </c>
       <c r="B173" s="0">
-        <v>1.1352</v>
+        <v>1.1364000000000001</v>
       </c>
       <c r="C173" s="0">
-        <v>1.2861813390825245</v>
+        <v>1.1918107026663178</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>85.980000000000004</v>
+        <v>86.099999999999994</v>
       </c>
       <c r="B174" s="0">
-        <v>1.1302000000000001</v>
+        <v>1.1314</v>
       </c>
       <c r="C174" s="0">
-        <v>0.90650457140575702</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0">
-        <v>86.480000000000004</v>
-      </c>
-      <c r="B175" s="0">
-        <v>1.1252</v>
-      </c>
-      <c r="C175" s="0">
-        <v>0.52918648939992807</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0">
-        <v>86.980000000000004</v>
-      </c>
-      <c r="B176" s="0">
-        <v>1.1202000000000001</v>
-      </c>
-      <c r="C176" s="0">
-        <v>0.1665521404375159</v>
+        <v>0.81560824202535431</v>
       </c>
     </row>
   </sheetData>
